--- a/Análisis estadístico/Kaplan_Meier/120_días/Mantel_Cox/Outcome_Mantel_Cox.xlsx
+++ b/Análisis estadístico/Kaplan_Meier/120_días/Mantel_Cox/Outcome_Mantel_Cox.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>2.37</v>
+        <v>1.03</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3">
@@ -394,7 +394,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>138.76</v>
+        <v>89.11</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1085.13</v>
+        <v>169.11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>4.26</v>
+        <v>0.24</v>
       </c>
       <c r="C5">
-        <v>0.04</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6">
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>51.23</v>
+        <v>20.54</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="C7">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>36.66</v>
+        <v>62.03</v>
       </c>
       <c r="C8">
         <v>0</v>
